--- a/backend/reports/Daily_Report_2026-01-07.xlsx
+++ b/backend/reports/Daily_Report_2026-01-07.xlsx
@@ -472,16 +472,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267</v>
+        <v>263.27</v>
       </c>
       <c r="C2" t="n">
-        <v>262.36</v>
+        <v>262.31</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.74</v>
+        <v>-0.36</v>
       </c>
       <c r="E2" t="n">
-        <v>32.53</v>
+        <v>32.46</v>
       </c>
       <c r="F2" t="n">
         <v>-30.22</v>
@@ -494,16 +494,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.52</v>
+        <v>188.57</v>
       </c>
       <c r="C3" t="n">
-        <v>187.24</v>
+        <v>190.29</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.72</v>
+        <v>0.91</v>
       </c>
       <c r="E3" t="n">
-        <v>48.94</v>
+        <v>48.86</v>
       </c>
       <c r="F3" t="n">
         <v>-35.93</v>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.8</v>
+        <v>479.56</v>
       </c>
       <c r="C4" t="n">
-        <v>478.51</v>
+        <v>487.7</v>
       </c>
       <c r="D4" t="n">
-        <v>0.99</v>
+        <v>1.7</v>
       </c>
       <c r="E4" t="n">
-        <v>24.35</v>
+        <v>24.37</v>
       </c>
       <c r="F4" t="n">
         <v>-20.56</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>446.38</v>
+        <v>435.89</v>
       </c>
       <c r="C5" t="n">
-        <v>432.96</v>
+        <v>436.11</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.01</v>
+        <v>0.05</v>
       </c>
       <c r="E5" t="n">
-        <v>62.92</v>
+        <v>62.79</v>
       </c>
       <c r="F5" t="n">
         <v>-48.19</v>
@@ -563,13 +563,13 @@
         <v>93707.14999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>92166.42</v>
+        <v>91475.11</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.64</v>
+        <v>-2.38</v>
       </c>
       <c r="E6" t="n">
-        <v>34.49</v>
+        <v>34.52</v>
       </c>
       <c r="F6" t="n">
         <v>-32.15</v>

--- a/backend/reports/Daily_Report_2026-01-07.xlsx
+++ b/backend/reports/Daily_Report_2026-01-07.xlsx
@@ -475,10 +475,10 @@
         <v>263.27</v>
       </c>
       <c r="C2" t="n">
-        <v>262.31</v>
+        <v>261.33</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.36</v>
+        <v>-0.74</v>
       </c>
       <c r="E2" t="n">
         <v>32.46</v>
@@ -497,13 +497,13 @@
         <v>188.57</v>
       </c>
       <c r="C3" t="n">
-        <v>190.29</v>
+        <v>189.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.91</v>
+        <v>0.67</v>
       </c>
       <c r="E3" t="n">
-        <v>48.86</v>
+        <v>48.85</v>
       </c>
       <c r="F3" t="n">
         <v>-35.93</v>
@@ -519,13 +519,13 @@
         <v>479.56</v>
       </c>
       <c r="C4" t="n">
-        <v>487.7</v>
+        <v>488.38</v>
       </c>
       <c r="D4" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="E4" t="n">
-        <v>24.37</v>
+        <v>24.38</v>
       </c>
       <c r="F4" t="n">
         <v>-20.56</v>
@@ -541,13 +541,13 @@
         <v>435.89</v>
       </c>
       <c r="C5" t="n">
-        <v>436.11</v>
+        <v>436.81</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.21</v>
       </c>
       <c r="E5" t="n">
-        <v>62.79</v>
+        <v>62.8</v>
       </c>
       <c r="F5" t="n">
         <v>-48.19</v>
@@ -563,13 +563,13 @@
         <v>93707.14999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>91475.11</v>
+        <v>91122.69</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.38</v>
+        <v>-2.76</v>
       </c>
       <c r="E6" t="n">
-        <v>34.52</v>
+        <v>34.54</v>
       </c>
       <c r="F6" t="n">
         <v>-32.15</v>
